--- a/medicine/Œil et vue/Troland/Troland.xlsx
+++ b/medicine/Œil et vue/Troland/Troland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le troland, noté Td[1] T[2] ou Trol[3], et aussi nommé luxon[4], est une unité photométrique utilisée en optique physiologique pour quantifier l'éclairement lumineux reçu par la rétine humaine. Elle correspond à la lumière reçue par la rétine en provenance d'une source de 1 cd m−2 de luminance à travers une pupille d'entrée de 1 mm2. Le terme vient de l'ingénieur, psychologue et parapsychologue américain Leonard Troland[5]. Celui-ci proposa que l'unité soit appelée le photon en 1916, introduisant pour la première fois ce terme en science, mais elle fut nommée par la suite d'après son nom[3], ou parfois luxon.
-La définition d'une unité de mesure optique dédiée a été rendue nécessaire à cause des variations importantes d'ouverture que la pupille de l’œil peut avoir, qui vont engendrer des changements tout aussi importants de l'illumination de la rétine[1]. Rarement utilisée en métrologie optique proprement dite[6], elle est néanmoins très utilisée dans le domaine de la colorimétrie de la photométrie pour son estimation de l'efficacité d'un stimulus lumineux au travers de la pupille de l’œil[7].
-Cette unité est en général comprise comme une mesure photopique telle que[2] :
+Le troland, noté Td T ou Trol, et aussi nommé luxon, est une unité photométrique utilisée en optique physiologique pour quantifier l'éclairement lumineux reçu par la rétine humaine. Elle correspond à la lumière reçue par la rétine en provenance d'une source de 1 cd m−2 de luminance à travers une pupille d'entrée de 1 mm2. Le terme vient de l'ingénieur, psychologue et parapsychologue américain Leonard Troland. Celui-ci proposa que l'unité soit appelée le photon en 1916, introduisant pour la première fois ce terme en science, mais elle fut nommée par la suite d'après son nom, ou parfois luxon.
+La définition d'une unité de mesure optique dédiée a été rendue nécessaire à cause des variations importantes d'ouverture que la pupille de l’œil peut avoir, qui vont engendrer des changements tout aussi importants de l'illumination de la rétine. Rarement utilisée en métrologie optique proprement dite, elle est néanmoins très utilisée dans le domaine de la colorimétrie de la photométrie pour son estimation de l'efficacité d'un stimulus lumineux au travers de la pupille de l’œil.
+Cette unité est en général comprise comme une mesure photopique telle que :
         T
         =
           L
@@ -531,10 +543,12 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le troland ne prend pas en compte l'absorption du milieu de l’œil (de l'humeur aqueuse par exemple) et laisse de côté les effets dépendants de l'angle d'incidence de la lumière, de l'angle solide du cône de lumière entrant dans l’œil ou de la partie de la pupille par laquelle la lumière est passée, ignorant les phénomènes tels que la sensibilité directionnelle de l’œil et l'effet Stiles-Crawford[2],[1].
-La luminance rétinienne correcte doit aussi prendre en compte la transmission et le grandissement de l’œil, ce qui redéfinit la luminance rétinienne, en prenant l'hypothèse d'une distance du point nodal à la rétine de 16,7 mm à[8] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le troland ne prend pas en compte l'absorption du milieu de l’œil (de l'humeur aqueuse par exemple) et laisse de côté les effets dépendants de l'angle d'incidence de la lumière, de l'angle solide du cône de lumière entrant dans l’œil ou de la partie de la pupille par laquelle la lumière est passée, ignorant les phénomènes tels que la sensibilité directionnelle de l’œil et l'effet Stiles-Crawford,.
+La luminance rétinienne correcte doit aussi prendre en compte la transmission et le grandissement de l’œil, ce qui redéfinit la luminance rétinienne, en prenant l'hypothèse d'une distance du point nodal à la rétine de 16,7 mm à :
         D
         =
         0.36
@@ -581,7 +595,9 @@
           <t>Conversions et équivalences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour passer de la luminance d'une source étendue exprimée en millilamberts à la luminance rétinienne en troland, on multiplie la luminance de la source par 
         5
@@ -590,8 +606,8 @@
           /
         2
     {\displaystyle 5d^{2}/2}
- où d est le diamètre de la pupille en mm[8].
-Un troland est aussi équivalent à 4.46 quanta par degré carré de champ visuel par seconde à 5 070 Å[8] et à 8,46 × 1014 lm mm2[9].
+ où d est le diamètre de la pupille en mm.
+Un troland est aussi équivalent à 4.46 quanta par degré carré de champ visuel par seconde à 5 070 Å et à 8,46 × 1014 lm mm2.
 </t>
         </is>
       </c>
@@ -620,9 +636,11 @@
           <t>Mesure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La mesure du troland peut se faire à l'aide d'un posemètre lorsque le détecteur est placé à l'endroit où la pupille de l’œil est censée être ou bien à la conjugaison d'une pupille simulant la pupille de l’œil. En général, le détecteur des posemètres a une surface de 1 cm2 ce qui amène la détermination de la mesure en trolands à[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La mesure du troland peut se faire à l'aide d'un posemètre lorsque le détecteur est placé à l'endroit où la pupille de l’œil est censée être ou bien à la conjugaison d'une pupille simulant la pupille de l’œil. En général, le détecteur des posemètres a une surface de 1 cm2 ce qui amène la détermination de la mesure en trolands à :
         T
         =
           P
@@ -639,7 +657,7 @@
     {\displaystyle P_{V}}
 est la mesure de l'éclairement lumineux en lux
 ω est l'angle solide du pinceau lumineux du stimulus mesuré au niveau du point nodal de l’œil
-Et si la mesure a été faite en lumière monochromatique il est possible de recalculer la valeur en trolands en effectuant une conversion des unités radiométriques à photométriques[2] :
+Et si la mesure a été faite en lumière monochromatique il est possible de recalculer la valeur en trolands en effectuant une conversion des unités radiométriques à photométriques :
         T
         =
         683
